--- a/참고자료/학생정보(2019-10-10).xlsx
+++ b/참고자료/학생정보(2019-10-10).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="218">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,6 +676,22 @@
   </si>
   <si>
     <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,7 +1010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1002,821 +1018,2035 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>202</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="E2">
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f ca="1">"00"&amp;F2</f>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" ca="1" si="1">RANDBETWEEN(1,5)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" ca="1" si="2">"00"&amp;F3</f>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>107</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>108</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>109</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>110</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>111</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>112</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>113</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>114</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>115</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>116</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>117</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>118</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>119</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>120</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>121</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>122</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>123</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>124</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>126</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>127</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>128</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>129</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>130</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>131</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="E31">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>132</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="E32">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>133</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="E33">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>134</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="E34">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>135</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="E35">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>136</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="E36">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>137</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="E37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>138</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="E38">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>139</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="E39">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>140</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="E40">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>141</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="E41">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>142</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="E42">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>143</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="E43">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>144</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="E44">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>145</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="E45">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>146</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="E46">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>147</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="E47">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>148</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="E48">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>149</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="E49">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>150</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="E50">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>151</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="E51">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>152</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="E52">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>153</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="E53">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>154</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="E54">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>155</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="E55">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>156</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="E56">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>157</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="E57">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>158</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="E58">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>159</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="E59">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>160</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="E60">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>161</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="E61">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>162</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="E62">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>163</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="E63">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>164</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="E64">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>165</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="E65">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>166</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="E66">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>167</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="E67">
+        <f t="shared" ref="E67:E101" ca="1" si="3">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F101" ca="1" si="4">RANDBETWEEN(1,5)</f>
+        <v>3</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G101" ca="1" si="5">"00"&amp;F67</f>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>168</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="E68">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>169</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="E69">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>170</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="E70">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>171</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="E71">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>172</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="E72">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>173</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="E73">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>174</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="E74">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>175</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="E75">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>176</v>
       </c>
       <c r="B76" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="E76">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>177</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="E77">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>178</v>
       </c>
       <c r="B78" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="E78">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>179</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="E79">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>180</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="E80">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>181</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="E81">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>182</v>
       </c>
       <c r="B82" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="E82">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>183</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="E83">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>184</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="E84">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>185</v>
       </c>
       <c r="B85" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="E85">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>186</v>
       </c>
       <c r="B86" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="E86">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>187</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="E87">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>188</v>
       </c>
       <c r="B88" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="E88">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>189</v>
       </c>
       <c r="B89" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="E89">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>190</v>
       </c>
       <c r="B90" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="E90">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>191</v>
       </c>
       <c r="B91" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="E91">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>192</v>
       </c>
       <c r="B92" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="E92">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>193</v>
       </c>
       <c r="B93" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="E93">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>194</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="E94">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>195</v>
       </c>
       <c r="B95" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="E95">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>196</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="E96">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>197</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="E97">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>198</v>
       </c>
       <c r="B98" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="E98">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>199</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="E99">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>200</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="E100">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>201</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
       </c>
     </row>
   </sheetData>
@@ -2025,10 +3255,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2065,23 +3295,23 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:E21" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>51</v>
+        <f t="shared" ref="D2:E22" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>83</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2093,23 +3323,23 @@
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F21" ca="1" si="1">SUM(C3:E3)</f>
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G21" ca="1" si="2">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2120,24 +3350,24 @@
         <v>209</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C3:E21" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>90</v>
+        <f t="shared" ref="C4:E23" ca="1" si="3">RANDBETWEEN(50,100)</f>
+        <v>55</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2149,23 +3379,23 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2177,23 +3407,23 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2205,23 +3435,23 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2233,23 +3463,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2261,23 +3491,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="2"/>
         <v>85</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>236</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="2"/>
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2289,23 +3519,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2317,23 +3547,23 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2345,23 +3575,23 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2373,23 +3603,23 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
         <v>50</v>
       </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>86</v>
-      </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2401,23 +3631,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2429,23 +3659,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2457,23 +3687,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="1"/>
+        <v>253</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="2"/>
         <v>84</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="1"/>
-        <v>224</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2485,23 +3715,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2513,23 +3743,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2545,19 +3775,19 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2569,23 +3799,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2597,23 +3827,2263 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F85" ca="1" si="4">SUM(C22:E22)</f>
+        <v>229</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G85" ca="1" si="5">ROUND(AVERAGE(C22:E22),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:E87" ca="1" si="6">RANDBETWEEN(50,100)</f>
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="4"/>
+        <v>233</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="6"/>
         <v>87</v>
       </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E25">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="4"/>
+        <v>229</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="4"/>
+        <v>214</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="4"/>
+        <v>178</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="4"/>
+        <v>237</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="4"/>
+        <v>281</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="4"/>
+        <v>191</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="4"/>
+        <v>257</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="4"/>
+        <v>202</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="4"/>
+        <v>223</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="4"/>
+        <v>226</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="4"/>
+        <v>194</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="4"/>
+        <v>199</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="4"/>
+        <v>258</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="4"/>
+        <v>259</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="5"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="4"/>
+        <v>231</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="4"/>
+        <v>251</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="4"/>
+        <v>172</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="6"/>
         <v>68</v>
       </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F54">
+        <f t="shared" ca="1" si="4"/>
+        <v>218</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="4"/>
+        <v>221</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="G57">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="4"/>
+        <v>218</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="4"/>
+        <v>207</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="4"/>
+        <v>215</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="4"/>
+        <v>204</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="4"/>
+        <v>261</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="4"/>
+        <v>258</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="4"/>
+        <v>196</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ca="1" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="4"/>
+        <v>241</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="4"/>
+        <v>193</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="4"/>
+        <v>233</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="4"/>
+        <v>205</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="4"/>
+        <v>209</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="G74">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="4"/>
+        <v>212</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="4"/>
+        <v>233</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="G81">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="4"/>
+        <v>213</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="4"/>
+        <v>223</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="4"/>
+        <v>219</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="4"/>
+        <v>212</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ref="F86:F101" ca="1" si="7">SUM(C86:E86)</f>
+        <v>215</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ref="G86:G101" ca="1" si="8">ROUND(AVERAGE(C86:E86),0)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="7"/>
+        <v>208</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ca="1" si="8"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ref="C88:E101" ca="1" si="9">RANDBETWEEN(50,100)</f>
+        <v>94</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="7"/>
+        <v>232</v>
+      </c>
+      <c r="G88">
+        <f t="shared" ca="1" si="8"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="7"/>
+        <v>239</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ca="1" si="8"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="7"/>
+        <v>231</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ca="1" si="8"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="7"/>
+        <v>199</v>
+      </c>
+      <c r="G91">
+        <f t="shared" ca="1" si="8"/>
         <v>66</v>
       </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="1"/>
-        <v>221</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="2"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="7"/>
+        <v>211</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ca="1" si="8"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="9"/>
+        <v>61</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="9"/>
+        <v>61</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="7"/>
+        <v>211</v>
+      </c>
+      <c r="G93">
+        <f t="shared" ca="1" si="8"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="7"/>
+        <v>190</v>
+      </c>
+      <c r="G94">
+        <f t="shared" ca="1" si="8"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="7"/>
+        <v>212</v>
+      </c>
+      <c r="G95">
+        <f t="shared" ca="1" si="8"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="7"/>
+        <v>205</v>
+      </c>
+      <c r="G96">
+        <f t="shared" ca="1" si="8"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="7"/>
+        <v>251</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ca="1" si="8"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="7"/>
+        <v>226</v>
+      </c>
+      <c r="G98">
+        <f t="shared" ca="1" si="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="9"/>
         <v>74</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="7"/>
+        <v>195</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ca="1" si="8"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="G100">
+        <f t="shared" ca="1" si="8"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="7"/>
+        <v>254</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ca="1" si="8"/>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
